--- a/apuesta_dia.xlsx
+++ b/apuesta_dia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75F8D719-43B5-4205-9CA5-4481AF5158A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC51DFB-8B1C-4978-9160-F24F0B666B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BEFEAD26-BB38-43ED-BC2E-041452898599}"/>
+    <workbookView xWindow="5655" yWindow="2265" windowWidth="21600" windowHeight="11295" xr2:uid="{BEFEAD26-BB38-43ED-BC2E-041452898599}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>APUESTA</t>
   </si>
@@ -48,143 +48,83 @@
     <t>RESULTADO</t>
   </si>
   <si>
-    <t>ATL vs POR</t>
-  </si>
-  <si>
-    <t>Terance Mann - Sobre 1.5 Dobles realizados</t>
-  </si>
-  <si>
-    <t>1.52x</t>
-  </si>
-  <si>
-    <t>Cumplio en 9/10 https://prnt.sc/65A7kON2gcZ5</t>
-  </si>
-  <si>
-    <t>Trae Young - Sobre 4.5 Dobles realizados</t>
-  </si>
-  <si>
-    <t>1.55x</t>
-  </si>
-  <si>
-    <t>Cumplio en 7/10 https://prnt.sc/IjlIHx3b-tEa</t>
-  </si>
-  <si>
-    <t>Deni Avdija - Sobre 5.5 Triples intentados</t>
-  </si>
-  <si>
-    <t>1.39x</t>
-  </si>
-  <si>
-    <t>Cumplio en 10/10 https://prnt.sc/MFleDYVFvIyS</t>
-  </si>
-  <si>
-    <t>Shaedon Sharpe - Sobre 4.5 Dobles realizados</t>
-  </si>
-  <si>
-    <t>1.46x</t>
-  </si>
-  <si>
-    <t>Cumplio en 7/10 https://prnt.sc/SBiphy7aWKl_</t>
-  </si>
-  <si>
-    <t>Toumani Camara - Sobre 4.5 Dobles intentados</t>
-  </si>
-  <si>
-    <t>1.53x</t>
-  </si>
-  <si>
-    <t>Cumplio en 7/10 https://prnt.sc/wO6MZduBVB22</t>
-  </si>
-  <si>
     <t>Caris LeVert - Sobre 8.5 Gol de Campo intentado</t>
   </si>
   <si>
-    <t>1.38x</t>
-  </si>
-  <si>
-    <t>Cuimplio en 10/10 https://prnt.sc/8dCVYmzNRaQ3</t>
-  </si>
-  <si>
     <t>CUOTA TOTAL =</t>
   </si>
   <si>
-    <t>13x</t>
-  </si>
-  <si>
-    <t>https://stake.com/sports/home?currency=btc&amp;betId=da87ba98-562f-4c74-a9ca-e880b90a14ac&amp;modal=bet</t>
-  </si>
-  <si>
-    <t>CHI vs TOR</t>
-  </si>
-  <si>
-    <t>Immanuel Quickley - Sobre 3.5 Tiros Libres intentados</t>
-  </si>
-  <si>
-    <t>1.50x</t>
-  </si>
-  <si>
-    <t>Cumplio en 8/10 https://prnt.sc/sBwD4AniNUbw</t>
-  </si>
-  <si>
-    <t>Josh Giddey - Sobre 3.5 Dobles realizados</t>
-  </si>
-  <si>
-    <t>1.30x</t>
-  </si>
-  <si>
-    <t>Cumplio en 9/10 https://prnt.sc/vPYqwp4MU9bs</t>
-  </si>
-  <si>
-    <t>Nikola Vucevic - Debajo 5.5 Dobles realizados</t>
-  </si>
-  <si>
-    <t>1.49x</t>
-  </si>
-  <si>
-    <t>Supero la linea en 2/10 https://prnt.sc/XKIPRviPQKQT</t>
-  </si>
-  <si>
-    <t>Scottie Barnes - Sobre 2.5 Tiros Libres intentados</t>
-  </si>
-  <si>
-    <t>Cumplio en 9/10 https://prnt.sc/g2H9opci9Prw</t>
-  </si>
-  <si>
-    <t>Coby White - Sobre 7.5 Dobles intentados</t>
-  </si>
-  <si>
-    <t>1.47x</t>
-  </si>
-  <si>
-    <t>Cumplio en 9/10 https://prnt.sc/R8a7hOl33zka</t>
-  </si>
-  <si>
-    <t>Ja'Kobe Walter - Sobre 4.5 Dobles intentados</t>
-  </si>
-  <si>
-    <t>Cumplio en 8/10 https://prnt.sc/d9qB_vVlMsC3</t>
-  </si>
-  <si>
-    <t>9.40x</t>
-  </si>
-  <si>
-    <t>https://stake.com/sports/home?currency=btc&amp;betId=f59917b3-ac2b-4f88-b055-6e6d92b0c900&amp;modal=bet</t>
-  </si>
-  <si>
     <t>CUOTA TOTAL DUPLINHA) =</t>
   </si>
   <si>
-    <t>12X</t>
-  </si>
-  <si>
-    <t>https://stake.com/sports/home?betId=df284f22-6b31-4775-bdb0-e39608a0a0ad&amp;modal=bet</t>
+    <t>CLE vs NYK</t>
+  </si>
+  <si>
+    <t>ATL vs DAL</t>
+  </si>
+  <si>
+    <t>Zaccharie Risacher - Sobre 4.5 Dobles intentados</t>
+  </si>
+  <si>
+    <t>1,35x</t>
+  </si>
+  <si>
+    <t>Cumplio en 8/10 https://prnt.sc/H3s_nTuD3hZQ</t>
+  </si>
+  <si>
+    <t>1,43x</t>
+  </si>
+  <si>
+    <t>Cumplio en 10/10 https://prnt.sc/KJd6GAiSAMiw</t>
+  </si>
+  <si>
+    <t>Naji Marshall - Sobre 6.5 Dobles intentados</t>
+  </si>
+  <si>
+    <t>1,53x</t>
+  </si>
+  <si>
+    <t>Cumplio en 9/10 https://prnt.sc/RfjZAKnftueg</t>
+  </si>
+  <si>
+    <t>3,40x</t>
+  </si>
+  <si>
+    <t>Cumplio en 8/10 https://prnt.sc/xJKcN8zY44kY</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns - Sobre 11.5 Dobles intentados</t>
+  </si>
+  <si>
+    <t>Darius Garland - Sobre 2.5 Rebotes</t>
+  </si>
+  <si>
+    <t>1,41x</t>
+  </si>
+  <si>
+    <t>OG Anunoby - Sobre 3.5 Dobles realizados</t>
+  </si>
+  <si>
+    <t>1,33x</t>
+  </si>
+  <si>
+    <t>Cumplio en 8/10 https://prnt.sc/J3mpBYhMZBKA</t>
+  </si>
+  <si>
+    <t>2,90x</t>
+  </si>
+  <si>
+    <t>9,72x</t>
+  </si>
+  <si>
+    <t>https://stake.com/sports/home?currency=btc&amp;betId=eef25aa5-f65f-4343-a57f-176d8a7291f8&amp;modal=bet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +165,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -353,35 +299,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -390,6 +321,31 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -709,273 +665,171 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="12" customWidth="1"/>
     <col min="2" max="2" width="63.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="12" customWidth="1"/>
     <col min="4" max="4" width="77.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+      <c r="A1" s="13">
         <v>45735</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="4"/>
-    </row>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://prnt.sc/65A7kON2gcZ5" xr:uid="{5FE6B87A-5909-4F9C-B195-8F26BB6C061C}"/>
-    <hyperlink ref="D3" r:id="rId2" display="https://prnt.sc/IjlIHx3b-tEa" xr:uid="{DC793898-4790-46FD-AFAD-CF0E588AAD2E}"/>
-    <hyperlink ref="D4" r:id="rId3" display="https://prnt.sc/MFleDYVFvIyS" xr:uid="{CB2DC472-17C3-4CB0-8E6C-9F30708578F1}"/>
-    <hyperlink ref="D5" r:id="rId4" display="https://prnt.sc/SBiphy7aWKl_" xr:uid="{36B4EFB3-9B0B-40CB-9610-1F91B016A15A}"/>
-    <hyperlink ref="D6" r:id="rId5" display="https://prnt.sc/wO6MZduBVB22" xr:uid="{D775CC29-F5E9-455D-9C86-6C833B7AE023}"/>
-    <hyperlink ref="D7" r:id="rId6" display="https://prnt.sc/8dCVYmzNRaQ3" xr:uid="{4BD962D7-5036-4C8A-B987-26E8F68F3A47}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{D329A212-1132-47A0-926B-7796705BBD10}"/>
-    <hyperlink ref="D9" r:id="rId8" display="https://prnt.sc/sBwD4AniNUbw" xr:uid="{885FCA0C-9503-429F-8E66-3F06BCF5C8A6}"/>
-    <hyperlink ref="D10" r:id="rId9" display="https://prnt.sc/vPYqwp4MU9bs" xr:uid="{CEA570CD-63C4-401D-B539-1ED9A0AC4C19}"/>
-    <hyperlink ref="D11" r:id="rId10" display="https://prnt.sc/XKIPRviPQKQT" xr:uid="{243094D9-FA29-4EBC-A0CE-786E4DDBC718}"/>
-    <hyperlink ref="D12" r:id="rId11" display="https://prnt.sc/g2H9opci9Prw" xr:uid="{AA5A1DC6-EFA0-4FC3-9432-33494E7DFB1A}"/>
-    <hyperlink ref="D13" r:id="rId12" display="https://prnt.sc/R8a7hOl33zka" xr:uid="{DFCCA555-4B55-4473-BD6E-3E1A780FFA35}"/>
-    <hyperlink ref="D14" r:id="rId13" display="https://prnt.sc/d9qB_vVlMsC3" xr:uid="{BC3C2763-3DF8-47B0-B186-9C7B354DF044}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{1D426FAB-8E91-4B26-8FEE-4DE44CC9043E}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{07DEB349-24F4-4A31-AB46-8B32119975AC}"/>
+    <hyperlink ref="D10" r:id="rId1" xr:uid="{5F8BD507-CC2A-46BE-A60C-8ED801C4E672}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/apuesta_dia.xlsx
+++ b/apuesta_dia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC51DFB-8B1C-4978-9160-F24F0B666B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75650242-F844-421D-9217-2A352708B8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="2265" windowWidth="21600" windowHeight="11295" xr2:uid="{BEFEAD26-BB38-43ED-BC2E-041452898599}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BEFEAD26-BB38-43ED-BC2E-041452898599}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -665,7 +665,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +679,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13">
-        <v>45735</v>
+        <v>45749</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>

--- a/apuesta_dia.xlsx
+++ b/apuesta_dia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75650242-F844-421D-9217-2A352708B8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E507B46-B27B-4BC2-A975-53CC2B6059CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BEFEAD26-BB38-43ED-BC2E-041452898599}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BEFEAD26-BB38-43ED-BC2E-041452898599}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>APUESTA</t>
   </si>
@@ -48,76 +48,82 @@
     <t>RESULTADO</t>
   </si>
   <si>
-    <t>Caris LeVert - Sobre 8.5 Gol de Campo intentado</t>
-  </si>
-  <si>
     <t>CUOTA TOTAL =</t>
   </si>
   <si>
     <t>CUOTA TOTAL DUPLINHA) =</t>
   </si>
   <si>
-    <t>CLE vs NYK</t>
-  </si>
-  <si>
-    <t>ATL vs DAL</t>
-  </si>
-  <si>
-    <t>Zaccharie Risacher - Sobre 4.5 Dobles intentados</t>
-  </si>
-  <si>
-    <t>1,35x</t>
-  </si>
-  <si>
-    <t>Cumplio en 8/10 https://prnt.sc/H3s_nTuD3hZQ</t>
-  </si>
-  <si>
     <t>1,43x</t>
   </si>
   <si>
-    <t>Cumplio en 10/10 https://prnt.sc/KJd6GAiSAMiw</t>
-  </si>
-  <si>
-    <t>Naji Marshall - Sobre 6.5 Dobles intentados</t>
-  </si>
-  <si>
-    <t>1,53x</t>
-  </si>
-  <si>
-    <t>Cumplio en 9/10 https://prnt.sc/RfjZAKnftueg</t>
-  </si>
-  <si>
     <t>3,40x</t>
   </si>
   <si>
-    <t>Cumplio en 8/10 https://prnt.sc/xJKcN8zY44kY</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns - Sobre 11.5 Dobles intentados</t>
-  </si>
-  <si>
-    <t>Darius Garland - Sobre 2.5 Rebotes</t>
-  </si>
-  <si>
-    <t>1,41x</t>
-  </si>
-  <si>
-    <t>OG Anunoby - Sobre 3.5 Dobles realizados</t>
-  </si>
-  <si>
-    <t>1,33x</t>
-  </si>
-  <si>
-    <t>Cumplio en 8/10 https://prnt.sc/J3mpBYhMZBKA</t>
-  </si>
-  <si>
-    <t>2,90x</t>
-  </si>
-  <si>
-    <t>9,72x</t>
-  </si>
-  <si>
-    <t>https://stake.com/sports/home?currency=btc&amp;betId=eef25aa5-f65f-4343-a57f-176d8a7291f8&amp;modal=bet</t>
+    <t>MIL vs PHI</t>
+  </si>
+  <si>
+    <t>Kyle Kuzma - Debajo 5.5 Dobles realizados</t>
+  </si>
+  <si>
+    <t>1,42x</t>
+  </si>
+  <si>
+    <t>Supero la linea en 2/10 https://prnt.sc/-3BUqD5x4j4q</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo - Sobre 5.5 Tiros libres realizados</t>
+  </si>
+  <si>
+    <t>1,38x</t>
+  </si>
+  <si>
+    <t>Cumplio en 10/10 https://prnt.sc/jlLBVcNBS-x0 (Opcional: -11,5 Dobles realizados 1,50x 8/10 no supero.</t>
+  </si>
+  <si>
+    <t>Ricky Council IV - Sobre 4.5 Dobles intentados</t>
+  </si>
+  <si>
+    <t>1,58x</t>
+  </si>
+  <si>
+    <t>Cumplio en 7/10 https://prnt.sc/pSfQFYnteu3T (pueden bajar lineas)</t>
+  </si>
+  <si>
+    <t>Scottie Barnes - Debajo 6.5 Dobles realizados</t>
+  </si>
+  <si>
+    <t>Supero en 2/10 https://prnt.sc/JmB2tMRUUWfI (hizo 10 y 7)</t>
+  </si>
+  <si>
+    <t>TOR vs POR</t>
+  </si>
+  <si>
+    <t>Deni Avdija - Sobre 5.5 Triples intentados</t>
+  </si>
+  <si>
+    <t>1,39x</t>
+  </si>
+  <si>
+    <t>Cumplio en 10/10 https://prnt.sc/obxxUOTRkghj</t>
+  </si>
+  <si>
+    <t>Toumani Camara - Sobre 2.5 Dobles realizados</t>
+  </si>
+  <si>
+    <t>1,52x</t>
+  </si>
+  <si>
+    <t>Cumplio en 7/10 https://prnt.sc/mQabbqX7ZK5R</t>
+  </si>
+  <si>
+    <t>3,20x</t>
+  </si>
+  <si>
+    <t>10,88x</t>
+  </si>
+  <si>
+    <t>https://stake.com/sports/home?operation=withdraw&amp;betId=afbc8a34-2c0e-4bf9-8b01-40a54ef4b893&amp;modal=bet</t>
   </si>
 </sst>
 </file>
@@ -299,14 +305,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -322,7 +325,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -346,6 +348,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -665,159 +670,159 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="10" customWidth="1"/>
     <col min="2" max="2" width="63.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="10" customWidth="1"/>
     <col min="4" max="4" width="77.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13">
-        <v>45749</v>
+      <c r="A1" s="11">
+        <v>45750</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="1:5" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="16"/>
+      <c r="C10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/apuesta_dia.xlsx
+++ b/apuesta_dia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E507B46-B27B-4BC2-A975-53CC2B6059CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F054BD-2704-47EE-9ACD-9F54B61DB159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BEFEAD26-BB38-43ED-BC2E-041452898599}"/>
   </bookViews>
@@ -123,7 +123,7 @@
     <t>10,88x</t>
   </si>
   <si>
-    <t>https://stake.com/sports/home?operation=withdraw&amp;betId=afbc8a34-2c0e-4bf9-8b01-40a54ef4b893&amp;modal=bet</t>
+    <t>https://stake.com/sports/home?type=sports&amp;status=active&amp;betId=afbc8a34-2c0e-4bf9-8b01-40a54ef4b893&amp;modal=bet</t>
   </si>
 </sst>
 </file>
@@ -670,7 +670,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/apuesta_dia.xlsx
+++ b/apuesta_dia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F054BD-2704-47EE-9ACD-9F54B61DB159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A840455-5307-430D-B3A8-56DFF7949DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BEFEAD26-BB38-43ED-BC2E-041452898599}"/>
+    <workbookView xWindow="2805" yWindow="3000" windowWidth="21600" windowHeight="11295" xr2:uid="{BEFEAD26-BB38-43ED-BC2E-041452898599}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>APUESTA</t>
   </si>
@@ -57,73 +57,100 @@
     <t>1,43x</t>
   </si>
   <si>
-    <t>3,40x</t>
-  </si>
-  <si>
-    <t>MIL vs PHI</t>
-  </si>
-  <si>
-    <t>Kyle Kuzma - Debajo 5.5 Dobles realizados</t>
-  </si>
-  <si>
-    <t>1,42x</t>
-  </si>
-  <si>
-    <t>Supero la linea en 2/10 https://prnt.sc/-3BUqD5x4j4q</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo - Sobre 5.5 Tiros libres realizados</t>
-  </si>
-  <si>
     <t>1,38x</t>
   </si>
   <si>
-    <t>Cumplio en 10/10 https://prnt.sc/jlLBVcNBS-x0 (Opcional: -11,5 Dobles realizados 1,50x 8/10 no supero.</t>
-  </si>
-  <si>
-    <t>Ricky Council IV - Sobre 4.5 Dobles intentados</t>
-  </si>
-  <si>
-    <t>1,58x</t>
-  </si>
-  <si>
-    <t>Cumplio en 7/10 https://prnt.sc/pSfQFYnteu3T (pueden bajar lineas)</t>
-  </si>
-  <si>
-    <t>Scottie Barnes - Debajo 6.5 Dobles realizados</t>
-  </si>
-  <si>
-    <t>Supero en 2/10 https://prnt.sc/JmB2tMRUUWfI (hizo 10 y 7)</t>
-  </si>
-  <si>
-    <t>TOR vs POR</t>
-  </si>
-  <si>
-    <t>Deni Avdija - Sobre 5.5 Triples intentados</t>
-  </si>
-  <si>
-    <t>1,39x</t>
-  </si>
-  <si>
-    <t>Cumplio en 10/10 https://prnt.sc/obxxUOTRkghj</t>
-  </si>
-  <si>
-    <t>Toumani Camara - Sobre 2.5 Dobles realizados</t>
-  </si>
-  <si>
-    <t>1,52x</t>
-  </si>
-  <si>
-    <t>Cumplio en 7/10 https://prnt.sc/mQabbqX7ZK5R</t>
-  </si>
-  <si>
-    <t>3,20x</t>
-  </si>
-  <si>
-    <t>10,88x</t>
-  </si>
-  <si>
-    <t>https://stake.com/sports/home?type=sports&amp;status=active&amp;betId=afbc8a34-2c0e-4bf9-8b01-40a54ef4b893&amp;modal=bet</t>
+    <t>LAC vs DAL</t>
+  </si>
+  <si>
+    <t>SAS vs CLE</t>
+  </si>
+  <si>
+    <t>Ivica Zubac - Sobre 14.5 Puntos</t>
+  </si>
+  <si>
+    <t>1,39X</t>
+  </si>
+  <si>
+    <t>Cumplio en 9/10 https://prnt.sc/j34VXdABdNC6</t>
+  </si>
+  <si>
+    <t>James Harden - Sobre 2.5 Dobles realizados</t>
+  </si>
+  <si>
+    <t>1,33x</t>
+  </si>
+  <si>
+    <t>Cumplio en 8/10 https://prnt.sc/t7bKfbnLO99R</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard - Sobre 5.5 Dobles realizados</t>
+  </si>
+  <si>
+    <t>Cumplio en 9/10 https://prnt.sc/E4TJVewPb2O3</t>
+  </si>
+  <si>
+    <t>2,90x</t>
+  </si>
+  <si>
+    <t>Stephon Castle - Sobre 9.5 Dobles intentados</t>
+  </si>
+  <si>
+    <t>Cumplio en 8/10 https://prnt.sc/1CZzNi1_ql4T</t>
+  </si>
+  <si>
+    <t>Donovan Mitchell - Sobre 8.5 Dobles intentados</t>
+  </si>
+  <si>
+    <t>1,36x</t>
+  </si>
+  <si>
+    <t>Cumplio en 8/10 (hizo 8 en ambas) https://prnt.sc/RHitttlAargf</t>
+  </si>
+  <si>
+    <t>Darius Garland - Sobre 8.5 Asistencias + Rebotes</t>
+  </si>
+  <si>
+    <t>1,35x</t>
+  </si>
+  <si>
+    <t>Cumplio en 10/10 y 19/20 https://prnt.sc/Gris_QlWNtmN</t>
+  </si>
+  <si>
+    <t>2,75x</t>
+  </si>
+  <si>
+    <t>IND vs UTA</t>
+  </si>
+  <si>
+    <t>Myles Turner - Debajo 4.5 Dobles realizados</t>
+  </si>
+  <si>
+    <t>1,30x</t>
+  </si>
+  <si>
+    <t>Supero en 2/10 https://prnt.sc/wVcJCACtcA5f</t>
+  </si>
+  <si>
+    <t>Tyrese Haliburton - Sobre 4.5 Dobles intentados</t>
+  </si>
+  <si>
+    <t>Cumplio en 9/10 https://prnt.sc/i3ikh0ptBguc</t>
+  </si>
+  <si>
+    <t>Collin Sexton - Sobre 3.5 Dobles realizados</t>
+  </si>
+  <si>
+    <t>Cumplio en 8/10 https://prnt.sc/LPVKbHRr6T2g</t>
+  </si>
+  <si>
+    <t>2,46x</t>
+  </si>
+  <si>
+    <t>19,62x</t>
+  </si>
+  <si>
+    <t>https://stake.com/sports/home?currency=btc&amp;betId=3bd5100e-93d3-4607-a58b-8367093af3ff&amp;modal=bet</t>
   </si>
 </sst>
 </file>
@@ -305,23 +332,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -351,6 +363,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -669,170 +690,222 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3274AB28-8A60-4B39-A6A6-0E5697CC4ABB}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="63.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="77.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="63.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="77.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11">
-        <v>45750</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="6">
+        <v>45751</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" spans="1:5" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="3" t="s">
+      <c r="D11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="3" t="s">
+      <c r="C13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="9"/>
+    </row>
     <row r="15" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1" xr:uid="{5F8BD507-CC2A-46BE-A60C-8ED801C4E672}"/>
+    <hyperlink ref="D14" r:id="rId1" xr:uid="{C4335E8A-AA6F-4FB6-8B35-15BF16E7993B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/apuesta_dia.xlsx
+++ b/apuesta_dia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A840455-5307-430D-B3A8-56DFF7949DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C711C121-5B5F-45CD-89BB-D7C75D726AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="3000" windowWidth="21600" windowHeight="11295" xr2:uid="{BEFEAD26-BB38-43ED-BC2E-041452898599}"/>
+    <workbookView xWindow="30240" yWindow="2850" windowWidth="21600" windowHeight="11295" xr2:uid="{BEFEAD26-BB38-43ED-BC2E-041452898599}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>APUESTA</t>
   </si>
@@ -54,110 +54,113 @@
     <t>CUOTA TOTAL DUPLINHA) =</t>
   </si>
   <si>
-    <t>1,43x</t>
-  </si>
-  <si>
-    <t>1,38x</t>
-  </si>
-  <si>
-    <t>LAC vs DAL</t>
-  </si>
-  <si>
-    <t>SAS vs CLE</t>
-  </si>
-  <si>
-    <t>Ivica Zubac - Sobre 14.5 Puntos</t>
-  </si>
-  <si>
-    <t>1,39X</t>
-  </si>
-  <si>
-    <t>Cumplio en 9/10 https://prnt.sc/j34VXdABdNC6</t>
-  </si>
-  <si>
-    <t>James Harden - Sobre 2.5 Dobles realizados</t>
-  </si>
-  <si>
-    <t>1,33x</t>
-  </si>
-  <si>
-    <t>Cumplio en 8/10 https://prnt.sc/t7bKfbnLO99R</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard - Sobre 5.5 Dobles realizados</t>
-  </si>
-  <si>
-    <t>Cumplio en 9/10 https://prnt.sc/E4TJVewPb2O3</t>
-  </si>
-  <si>
-    <t>2,90x</t>
-  </si>
-  <si>
-    <t>Stephon Castle - Sobre 9.5 Dobles intentados</t>
-  </si>
-  <si>
-    <t>Cumplio en 8/10 https://prnt.sc/1CZzNi1_ql4T</t>
-  </si>
-  <si>
-    <t>Donovan Mitchell - Sobre 8.5 Dobles intentados</t>
-  </si>
-  <si>
-    <t>1,36x</t>
-  </si>
-  <si>
-    <t>Cumplio en 8/10 (hizo 8 en ambas) https://prnt.sc/RHitttlAargf</t>
-  </si>
-  <si>
-    <t>Darius Garland - Sobre 8.5 Asistencias + Rebotes</t>
-  </si>
-  <si>
-    <t>1,35x</t>
-  </si>
-  <si>
-    <t>Cumplio en 10/10 y 19/20 https://prnt.sc/Gris_QlWNtmN</t>
-  </si>
-  <si>
-    <t>2,75x</t>
-  </si>
-  <si>
-    <t>IND vs UTA</t>
-  </si>
-  <si>
-    <t>Myles Turner - Debajo 4.5 Dobles realizados</t>
-  </si>
-  <si>
-    <t>1,30x</t>
-  </si>
-  <si>
-    <t>Supero en 2/10 https://prnt.sc/wVcJCACtcA5f</t>
-  </si>
-  <si>
-    <t>Tyrese Haliburton - Sobre 4.5 Dobles intentados</t>
-  </si>
-  <si>
-    <t>Cumplio en 9/10 https://prnt.sc/i3ikh0ptBguc</t>
-  </si>
-  <si>
-    <t>Collin Sexton - Sobre 3.5 Dobles realizados</t>
-  </si>
-  <si>
-    <t>Cumplio en 8/10 https://prnt.sc/LPVKbHRr6T2g</t>
-  </si>
-  <si>
-    <t>2,46x</t>
-  </si>
-  <si>
-    <t>19,62x</t>
-  </si>
-  <si>
-    <t>https://stake.com/sports/home?currency=btc&amp;betId=3bd5100e-93d3-4607-a58b-8367093af3ff&amp;modal=bet</t>
+    <t>Coby White - Sobre 20.5 Puntos</t>
+  </si>
+  <si>
+    <t>1,47x</t>
+  </si>
+  <si>
+    <t>Nikola Vucevic - Debajo 5.5 Triples intentados</t>
+  </si>
+  <si>
+    <t>1,39x</t>
+  </si>
+  <si>
+    <t>SUPERO LA LINEA EN 2/10 Y 2/20 (Solo en esos 2 partidos) https://prnt.sc/IFS1caddDH7f</t>
+  </si>
+  <si>
+    <t>Cumplio en 10/10 https://prnt.sc/ZYrYTFQc0PEm</t>
+  </si>
+  <si>
+    <t>Seth Curry - Sobre 1.5 Dobles realizados</t>
+  </si>
+  <si>
+    <t>1,54x</t>
+  </si>
+  <si>
+    <t>Cumplio en 9/10 (hizo 1) https://prnt.sc/xWhzL7aAtaCt</t>
+  </si>
+  <si>
+    <t>3,45x</t>
+  </si>
+  <si>
+    <t>Cumplio en 9/10 https://prnt.sc/XqOQSLhKZ6tk</t>
+  </si>
+  <si>
+    <t>1,46x</t>
+  </si>
+  <si>
+    <t>Scottie Barnes - Sobre 3.5 Asistencias</t>
+  </si>
+  <si>
+    <t>CHI vs CHA</t>
+  </si>
+  <si>
+    <t>TOR vs BKN</t>
+  </si>
+  <si>
+    <t>Keon Johnson - Sobre 1.5 Faltas personales</t>
+  </si>
+  <si>
+    <t>1,42x</t>
+  </si>
+  <si>
+    <t>Cumplio en 9/10 https://prnt.sc/2vjPef9eWh_P</t>
+  </si>
+  <si>
+    <t>RJ Barrett - Sobre 8.5 Dobles intentados</t>
+  </si>
+  <si>
+    <t>1,45x</t>
+  </si>
+  <si>
+    <t>Cumplio en 8/10 (hizo 8) https://prnt.sc/GyFTw6WYfMK5</t>
+  </si>
+  <si>
+    <t>3,35x</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns - Sobre 9.5 Dobles intentados</t>
+  </si>
+  <si>
+    <t>Cumplio en 10/10 https://prnt.sc/tka2gfSg7u7Q</t>
+  </si>
+  <si>
+    <t>NYK vs PHX</t>
+  </si>
+  <si>
+    <t>OG Anunoby - Sobre 6.5 Dobles intentados</t>
+  </si>
+  <si>
+    <t>1,44x</t>
+  </si>
+  <si>
+    <t>Cumplio en 10/10 https://prnt.sc/yoawDXM9Kcj3</t>
+  </si>
+  <si>
+    <t>Ryan Dunn - Sobre 3.5 Triples intentados</t>
+  </si>
+  <si>
+    <t>1,55x</t>
+  </si>
+  <si>
+    <t>Cumplio en 9/10 https://prnt.sc/zLjwc7w7ctkw</t>
+  </si>
+  <si>
+    <t>3,55x</t>
+  </si>
+  <si>
+    <t>41,03x</t>
+  </si>
+  <si>
+    <t>https://stake.com/sports/home?operation=withdraw&amp;betId=a1076595-97cd-425b-80bf-4469997f3c49&amp;modal=bet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,12 +201,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -332,7 +329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -360,9 +357,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -691,7 +685,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,7 +699,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6">
-        <v>45751</v>
+        <v>45753</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -722,46 +716,46 @@
     </row>
     <row r="2" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="E4" s="9"/>
     </row>
@@ -771,29 +765,29 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="12"/>
+        <v>15</v>
+      </c>
+      <c r="D5" s="11"/>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>21</v>
@@ -801,14 +795,14 @@
       <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>24</v>
@@ -816,7 +810,7 @@
       <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="9"/>
@@ -829,51 +823,51 @@
       <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="11" t="s">
         <v>35</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="E12" s="9"/>
     </row>
@@ -883,9 +877,9 @@
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="13"/>
+        <v>37</v>
+      </c>
+      <c r="D13" s="12"/>
       <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -894,20 +888,17 @@
         <v>5</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="13" t="s">
         <v>38</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D14" r:id="rId1" xr:uid="{C4335E8A-AA6F-4FB6-8B35-15BF16E7993B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/apuesta_dia.xlsx
+++ b/apuesta_dia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C711C121-5B5F-45CD-89BB-D7C75D726AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1B06D3-B416-4904-BC8F-52ED85D14D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="2850" windowWidth="21600" windowHeight="11295" xr2:uid="{BEFEAD26-BB38-43ED-BC2E-041452898599}"/>
+    <workbookView xWindow="3435" yWindow="3150" windowWidth="21600" windowHeight="11295" xr2:uid="{BEFEAD26-BB38-43ED-BC2E-041452898599}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>APUESTA</t>
   </si>
@@ -54,106 +54,103 @@
     <t>CUOTA TOTAL DUPLINHA) =</t>
   </si>
   <si>
-    <t>Coby White - Sobre 20.5 Puntos</t>
-  </si>
-  <si>
-    <t>1,47x</t>
-  </si>
-  <si>
-    <t>Nikola Vucevic - Debajo 5.5 Triples intentados</t>
-  </si>
-  <si>
-    <t>1,39x</t>
-  </si>
-  <si>
-    <t>SUPERO LA LINEA EN 2/10 Y 2/20 (Solo en esos 2 partidos) https://prnt.sc/IFS1caddDH7f</t>
-  </si>
-  <si>
-    <t>Cumplio en 10/10 https://prnt.sc/ZYrYTFQc0PEm</t>
-  </si>
-  <si>
-    <t>Seth Curry - Sobre 1.5 Dobles realizados</t>
-  </si>
-  <si>
-    <t>1,54x</t>
-  </si>
-  <si>
-    <t>Cumplio en 9/10 (hizo 1) https://prnt.sc/xWhzL7aAtaCt</t>
-  </si>
-  <si>
-    <t>3,45x</t>
-  </si>
-  <si>
-    <t>Cumplio en 9/10 https://prnt.sc/XqOQSLhKZ6tk</t>
-  </si>
-  <si>
-    <t>1,46x</t>
-  </si>
-  <si>
-    <t>Scottie Barnes - Sobre 3.5 Asistencias</t>
-  </si>
-  <si>
-    <t>CHI vs CHA</t>
-  </si>
-  <si>
-    <t>TOR vs BKN</t>
-  </si>
-  <si>
-    <t>Keon Johnson - Sobre 1.5 Faltas personales</t>
-  </si>
-  <si>
-    <t>1,42x</t>
-  </si>
-  <si>
-    <t>Cumplio en 9/10 https://prnt.sc/2vjPef9eWh_P</t>
-  </si>
-  <si>
-    <t>RJ Barrett - Sobre 8.5 Dobles intentados</t>
-  </si>
-  <si>
     <t>1,45x</t>
   </si>
   <si>
-    <t>Cumplio en 8/10 (hizo 8) https://prnt.sc/GyFTw6WYfMK5</t>
-  </si>
-  <si>
-    <t>3,35x</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns - Sobre 9.5 Dobles intentados</t>
-  </si>
-  <si>
-    <t>Cumplio en 10/10 https://prnt.sc/tka2gfSg7u7Q</t>
-  </si>
-  <si>
-    <t>NYK vs PHX</t>
-  </si>
-  <si>
-    <t>OG Anunoby - Sobre 6.5 Dobles intentados</t>
-  </si>
-  <si>
-    <t>1,44x</t>
-  </si>
-  <si>
-    <t>Cumplio en 10/10 https://prnt.sc/yoawDXM9Kcj3</t>
-  </si>
-  <si>
     <t>Ryan Dunn - Sobre 3.5 Triples intentados</t>
   </si>
   <si>
-    <t>1,55x</t>
-  </si>
-  <si>
-    <t>Cumplio en 9/10 https://prnt.sc/zLjwc7w7ctkw</t>
-  </si>
-  <si>
-    <t>3,55x</t>
-  </si>
-  <si>
-    <t>41,03x</t>
-  </si>
-  <si>
-    <t>https://stake.com/sports/home?operation=withdraw&amp;betId=a1076595-97cd-425b-80bf-4469997f3c49&amp;modal=bet</t>
+    <t>ORL vs ATL</t>
+  </si>
+  <si>
+    <t>PHX vs GSW</t>
+  </si>
+  <si>
+    <t>IND vs WAS</t>
+  </si>
+  <si>
+    <t>Paolo Banchero - Sobre 12.5 Dobles intentados</t>
+  </si>
+  <si>
+    <t>1,34x</t>
+  </si>
+  <si>
+    <t>Cumplio en 9/10 https://prnt.sc/CFckrbnVt_jq</t>
+  </si>
+  <si>
+    <t>Dyson Daniels - Sobre 3.5 Dobles realizados</t>
+  </si>
+  <si>
+    <t>1,32x</t>
+  </si>
+  <si>
+    <t>Cumplio en 8/10 (hizo 3) https://prnt.sc/43uAp3BLOrz0</t>
+  </si>
+  <si>
+    <t>Zaccharie Risacher - Sobre 2.5 Dobles realizados</t>
+  </si>
+  <si>
+    <t>1,57x</t>
+  </si>
+  <si>
+    <t>Cumplio en 8/10 https://prnt.sc/DL3mo6VJdwF7</t>
+  </si>
+  <si>
+    <t>3,00x</t>
+  </si>
+  <si>
+    <t>Tyrese Haliburton - Sobre 11.5 Gol de Campo intentado</t>
+  </si>
+  <si>
+    <t>Cumplio en 9/10 https://prnt.sc/CWe8sHI8cfF2</t>
+  </si>
+  <si>
+    <t>Jordan Poole - Sobre 4.5 Goles de campo realizados</t>
+  </si>
+  <si>
+    <t>1,40x</t>
+  </si>
+  <si>
+    <t>Cumplio en 8/10 https://prnt.sc/BJNnffHSNgVB</t>
+  </si>
+  <si>
+    <t>Pascal Siakam - Sobre 1.5 Tiros libres realizados</t>
+  </si>
+  <si>
+    <t>1,43x</t>
+  </si>
+  <si>
+    <t>Cumplio en 9/10 (en la unica no le hicieron faltas.) https://prnt.sc/VhKnmGxbc11_</t>
+  </si>
+  <si>
+    <t>3,70x</t>
+  </si>
+  <si>
+    <t>Cumplio en 9/10 https://prnt.sc/Ra03vgmlMulr</t>
+  </si>
+  <si>
+    <t>Brandin Podziemski - Sobre 4.5 Goles de campo realizados</t>
+  </si>
+  <si>
+    <t>1,41x</t>
+  </si>
+  <si>
+    <t>Cumplio en 8/10 (hizo 4) https://prnt.sc/NAoER9vq_erZ</t>
+  </si>
+  <si>
+    <t>Tyus Jones - Sobre 0.5 Dobles realizados</t>
+  </si>
+  <si>
+    <t>Cumplio en 8/10 https://prnt.sc/jrNhgNL1MWeb</t>
+  </si>
+  <si>
+    <t>3,15x</t>
+  </si>
+  <si>
+    <t>34,97x</t>
+  </si>
+  <si>
+    <t>https://stake.com/sports/home?betId=69c67952-a153-4f8e-9fb8-7c0fd5211861&amp;modal=bet</t>
   </si>
 </sst>
 </file>
@@ -685,7 +682,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,7 +696,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -716,46 +713,46 @@
     </row>
     <row r="2" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="1:5" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>14</v>
       </c>
       <c r="E4" s="9"/>
     </row>
@@ -765,53 +762,53 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E8" s="9"/>
     </row>
@@ -821,53 +818,53 @@
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>29</v>
       </c>
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E12" s="9"/>
     </row>
@@ -877,7 +874,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="9"/>
@@ -888,10 +885,10 @@
         <v>5</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>38</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>39</v>
       </c>
       <c r="E14" s="9"/>
     </row>

--- a/apuesta_dia.xlsx
+++ b/apuesta_dia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1B06D3-B416-4904-BC8F-52ED85D14D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147572F3-820D-48F7-AEA7-3E9C240D2FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="3150" windowWidth="21600" windowHeight="11295" xr2:uid="{BEFEAD26-BB38-43ED-BC2E-041452898599}"/>
+    <workbookView xWindow="3255" yWindow="2310" windowWidth="21600" windowHeight="11295" xr2:uid="{BEFEAD26-BB38-43ED-BC2E-041452898599}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -57,100 +57,100 @@
     <t>1,45x</t>
   </si>
   <si>
-    <t>Ryan Dunn - Sobre 3.5 Triples intentados</t>
-  </si>
-  <si>
-    <t>ORL vs ATL</t>
-  </si>
-  <si>
-    <t>PHX vs GSW</t>
-  </si>
-  <si>
-    <t>IND vs WAS</t>
-  </si>
-  <si>
-    <t>Paolo Banchero - Sobre 12.5 Dobles intentados</t>
-  </si>
-  <si>
-    <t>1,34x</t>
-  </si>
-  <si>
-    <t>Cumplio en 9/10 https://prnt.sc/CFckrbnVt_jq</t>
-  </si>
-  <si>
-    <t>Dyson Daniels - Sobre 3.5 Dobles realizados</t>
-  </si>
-  <si>
-    <t>1,32x</t>
-  </si>
-  <si>
-    <t>Cumplio en 8/10 (hizo 3) https://prnt.sc/43uAp3BLOrz0</t>
-  </si>
-  <si>
-    <t>Zaccharie Risacher - Sobre 2.5 Dobles realizados</t>
-  </si>
-  <si>
-    <t>1,57x</t>
-  </si>
-  <si>
-    <t>Cumplio en 8/10 https://prnt.sc/DL3mo6VJdwF7</t>
-  </si>
-  <si>
-    <t>3,00x</t>
-  </si>
-  <si>
-    <t>Tyrese Haliburton - Sobre 11.5 Gol de Campo intentado</t>
-  </si>
-  <si>
-    <t>Cumplio en 9/10 https://prnt.sc/CWe8sHI8cfF2</t>
-  </si>
-  <si>
-    <t>Jordan Poole - Sobre 4.5 Goles de campo realizados</t>
-  </si>
-  <si>
-    <t>1,40x</t>
-  </si>
-  <si>
-    <t>Cumplio en 8/10 https://prnt.sc/BJNnffHSNgVB</t>
-  </si>
-  <si>
-    <t>Pascal Siakam - Sobre 1.5 Tiros libres realizados</t>
-  </si>
-  <si>
-    <t>1,43x</t>
-  </si>
-  <si>
-    <t>Cumplio en 9/10 (en la unica no le hicieron faltas.) https://prnt.sc/VhKnmGxbc11_</t>
-  </si>
-  <si>
-    <t>3,70x</t>
-  </si>
-  <si>
-    <t>Cumplio en 9/10 https://prnt.sc/Ra03vgmlMulr</t>
-  </si>
-  <si>
-    <t>Brandin Podziemski - Sobre 4.5 Goles de campo realizados</t>
-  </si>
-  <si>
-    <t>1,41x</t>
-  </si>
-  <si>
-    <t>Cumplio en 8/10 (hizo 4) https://prnt.sc/NAoER9vq_erZ</t>
-  </si>
-  <si>
-    <t>Tyus Jones - Sobre 0.5 Dobles realizados</t>
-  </si>
-  <si>
-    <t>Cumplio en 8/10 https://prnt.sc/jrNhgNL1MWeb</t>
-  </si>
-  <si>
     <t>3,15x</t>
   </si>
   <si>
-    <t>34,97x</t>
-  </si>
-  <si>
-    <t>https://stake.com/sports/home?betId=69c67952-a153-4f8e-9fb8-7c0fd5211861&amp;modal=bet</t>
+    <t>ORL vs BOS</t>
+  </si>
+  <si>
+    <t>Kentavious Caldwell-Pope - Sobre 2.5 Goles de campo realizados</t>
+  </si>
+  <si>
+    <t>1,54x</t>
+  </si>
+  <si>
+    <t>Cumplio en 8/10 https://prnt.sc/EPEzM4XtY5Io</t>
+  </si>
+  <si>
+    <t>Neemias Queta - Sobre 1.5 Faltas personales</t>
+  </si>
+  <si>
+    <t>1,47x</t>
+  </si>
+  <si>
+    <t>Cumplio en 10/10 sin Horford ni Porzingis (pivot suplente de kornet hoy) https://prnt.sc/1r1GPmXWdrfG</t>
+  </si>
+  <si>
+    <t>Sam Hauser - Sobre 4.5 Goles de campo realizados</t>
+  </si>
+  <si>
+    <t>1,53x</t>
+  </si>
+  <si>
+    <t>Cumplio en 2/2 (contando los out que hay Tatum, porzingis white, holiday, horford)https://prnt.sc/Cy_6ypnFUpPy</t>
+  </si>
+  <si>
+    <t>4,00x</t>
+  </si>
+  <si>
+    <t>CHI vs MIA</t>
+  </si>
+  <si>
+    <t>PHI vs WAS</t>
+  </si>
+  <si>
+    <t>Jared Butler - Sobre 1.5 Faltas personales</t>
+  </si>
+  <si>
+    <t>1,62x</t>
+  </si>
+  <si>
+    <t>Cumplio en 8/10 https://prnt.sc/XTQsqZhitf3W</t>
+  </si>
+  <si>
+    <t>Cumplio en 8/10 https://prnt.sc/gV7LSMhZRTKG</t>
+  </si>
+  <si>
+    <t>Quentin Grimes - Sobre 22.5 Puntos</t>
+  </si>
+  <si>
+    <t>Cumplio en 7/10 (hizo 3) https://prnt.sc/lUx3GAQ6NLxo</t>
+  </si>
+  <si>
+    <t>Kyshawn George - Sobre 3.5 Rebotes</t>
+  </si>
+  <si>
+    <t>4,20x</t>
+  </si>
+  <si>
+    <t>Nikola Vucevic - Sobre 7.5 Rebotes</t>
+  </si>
+  <si>
+    <t>1,35x</t>
+  </si>
+  <si>
+    <t>Cumplio en 9/10 https://prnt.sc/mD4dP-gNddaU</t>
+  </si>
+  <si>
+    <t>Davion Mitchell - Sobre 7.5 Puntos</t>
+  </si>
+  <si>
+    <t>1,46x</t>
+  </si>
+  <si>
+    <t>Cumplio en 9/10 (hizo 6) https://prnt.sc/Dn1Y-sz7MTHt</t>
+  </si>
+  <si>
+    <t>Coby White - Sobre 28.5 Puntos + Asistencias + Rebotes</t>
+  </si>
+  <si>
+    <t>Cumplio en 9/10 https://prnt.sc/cCpSsKkGug-V</t>
+  </si>
+  <si>
+    <t>52,26x</t>
+  </si>
+  <si>
+    <t>https://stake.com/sports/home?betId=cad1a1e1-360a-4cb2-bae4-f3b02ec8f0db&amp;modal=bet</t>
   </si>
 </sst>
 </file>
@@ -682,7 +682,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +696,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6">
-        <v>45755</v>
+        <v>45756</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -716,43 +716,43 @@
         <v>8</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="E4" s="9"/>
     </row>
@@ -762,53 +762,53 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E8" s="9"/>
     </row>
@@ -818,53 +818,53 @@
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E12" s="9"/>
     </row>
@@ -874,7 +874,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="9"/>

--- a/apuesta_dia.xlsx
+++ b/apuesta_dia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147572F3-820D-48F7-AEA7-3E9C240D2FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF0ACC3-0721-4245-B5C1-921F73E004FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="2310" windowWidth="21600" windowHeight="11295" xr2:uid="{BEFEAD26-BB38-43ED-BC2E-041452898599}"/>
+    <workbookView xWindow="3885" yWindow="3255" windowWidth="21600" windowHeight="11295" xr2:uid="{BEFEAD26-BB38-43ED-BC2E-041452898599}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>APUESTA</t>
   </si>
@@ -51,106 +51,109 @@
     <t>CUOTA TOTAL =</t>
   </si>
   <si>
-    <t>CUOTA TOTAL DUPLINHA) =</t>
-  </si>
-  <si>
-    <t>1,45x</t>
-  </si>
-  <si>
-    <t>3,15x</t>
-  </si>
-  <si>
-    <t>ORL vs BOS</t>
-  </si>
-  <si>
-    <t>Kentavious Caldwell-Pope - Sobre 2.5 Goles de campo realizados</t>
-  </si>
-  <si>
-    <t>1,54x</t>
-  </si>
-  <si>
-    <t>Cumplio en 8/10 https://prnt.sc/EPEzM4XtY5Io</t>
-  </si>
-  <si>
-    <t>Neemias Queta - Sobre 1.5 Faltas personales</t>
-  </si>
-  <si>
-    <t>1,47x</t>
-  </si>
-  <si>
-    <t>Cumplio en 10/10 sin Horford ni Porzingis (pivot suplente de kornet hoy) https://prnt.sc/1r1GPmXWdrfG</t>
-  </si>
-  <si>
-    <t>Sam Hauser - Sobre 4.5 Goles de campo realizados</t>
-  </si>
-  <si>
     <t>1,53x</t>
   </si>
   <si>
-    <t>Cumplio en 2/2 (contando los out que hay Tatum, porzingis white, holiday, horford)https://prnt.sc/Cy_6ypnFUpPy</t>
-  </si>
-  <si>
-    <t>4,00x</t>
-  </si>
-  <si>
-    <t>CHI vs MIA</t>
-  </si>
-  <si>
-    <t>PHI vs WAS</t>
-  </si>
-  <si>
-    <t>Jared Butler - Sobre 1.5 Faltas personales</t>
-  </si>
-  <si>
-    <t>1,62x</t>
-  </si>
-  <si>
-    <t>Cumplio en 8/10 https://prnt.sc/XTQsqZhitf3W</t>
-  </si>
-  <si>
-    <t>Cumplio en 8/10 https://prnt.sc/gV7LSMhZRTKG</t>
-  </si>
-  <si>
-    <t>Quentin Grimes - Sobre 22.5 Puntos</t>
-  </si>
-  <si>
-    <t>Cumplio en 7/10 (hizo 3) https://prnt.sc/lUx3GAQ6NLxo</t>
-  </si>
-  <si>
-    <t>Kyshawn George - Sobre 3.5 Rebotes</t>
-  </si>
-  <si>
-    <t>4,20x</t>
-  </si>
-  <si>
-    <t>Nikola Vucevic - Sobre 7.5 Rebotes</t>
-  </si>
-  <si>
-    <t>1,35x</t>
-  </si>
-  <si>
-    <t>Cumplio en 9/10 https://prnt.sc/mD4dP-gNddaU</t>
-  </si>
-  <si>
-    <t>Davion Mitchell - Sobre 7.5 Puntos</t>
-  </si>
-  <si>
-    <t>1,46x</t>
-  </si>
-  <si>
-    <t>Cumplio en 9/10 (hizo 6) https://prnt.sc/Dn1Y-sz7MTHt</t>
-  </si>
-  <si>
-    <t>Coby White - Sobre 28.5 Puntos + Asistencias + Rebotes</t>
-  </si>
-  <si>
-    <t>Cumplio en 9/10 https://prnt.sc/cCpSsKkGug-V</t>
-  </si>
-  <si>
-    <t>52,26x</t>
-  </si>
-  <si>
-    <t>https://stake.com/sports/home?betId=cad1a1e1-360a-4cb2-bae4-f3b02ec8f0db&amp;modal=bet</t>
+    <t>CUOTA APUESTA TOTAL =</t>
+  </si>
+  <si>
+    <t>DET vs MIL</t>
+  </si>
+  <si>
+    <t>BOS vs CHA</t>
+  </si>
+  <si>
+    <t>MIN vs BKN</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo - Sobre 8.5 Goles de campo realizados</t>
+  </si>
+  <si>
+    <t>Cumplio en 10/10 (pueden bajar la linea a 7,5) https://prnt.sc/4eC8v1GOiTYK</t>
+  </si>
+  <si>
+    <t>AJ Green - Sobre 3.5 Gol de Campo intentado</t>
+  </si>
+  <si>
+    <t>1,37x</t>
+  </si>
+  <si>
+    <t>Cumplio en 10/10 https://prnt.sc/EzBJAad6nWHG</t>
+  </si>
+  <si>
+    <t>2,26x</t>
+  </si>
+  <si>
+    <t>Jrue Holiday - Sobre 3.5 Dobles intentados</t>
+  </si>
+  <si>
+    <t>1,59x</t>
+  </si>
+  <si>
+    <t>Cumplio en 9/10 (hizo 2) https://prnt.sc/O_qWGBROzl5t</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis - Sobre 6.5 Dobles intentados</t>
+  </si>
+  <si>
+    <t>1,55x</t>
+  </si>
+  <si>
+    <t>Cumplio en 9/10 (hizo 6, pueden bajar a 5,5 intentos) https://prnt.sc/nj7_Gbfhl2WG</t>
+  </si>
+  <si>
+    <t>2,65x</t>
+  </si>
+  <si>
+    <t>NOP vs MIA</t>
+  </si>
+  <si>
+    <t>Davion Mitchell - Sobre 9.5 Puntos</t>
+  </si>
+  <si>
+    <t>1,48x</t>
+  </si>
+  <si>
+    <t>Cumplio en 9/10 https://prnt.sc/T7LPp3-rSUcj</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins - Sobre 0.5 Faltas personales</t>
+  </si>
+  <si>
+    <t>1,33x</t>
+  </si>
+  <si>
+    <t>2,08x</t>
+  </si>
+  <si>
+    <t>Cumplio en 10/10 https://prnt.sc/0smaNnDUB8xN</t>
+  </si>
+  <si>
+    <t>Nickeil Alexander-Walker - Sobre 0.5 Tiros Libres intentados</t>
+  </si>
+  <si>
+    <t>1,83x</t>
+  </si>
+  <si>
+    <t>Cumplio en 9/10 https://prnt.sc/ycK4i6bfu2W2</t>
+  </si>
+  <si>
+    <t>Rudy Gobert - Sobre 1.5 Faltas personales</t>
+  </si>
+  <si>
+    <t>1,67x</t>
+  </si>
+  <si>
+    <t>Cumplio en 9/10 https://prnt.sc/sDnjSUIsjhkH</t>
+  </si>
+  <si>
+    <t>3,35x</t>
+  </si>
+  <si>
+    <t>53,02x</t>
+  </si>
+  <si>
+    <t>https://stake.com/sports/home?betId=03756cc3-756b-426c-8d91-1f39b94d0e0a&amp;modal=bet</t>
   </si>
 </sst>
 </file>
@@ -679,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3274AB28-8A60-4B39-A6A6-0E5697CC4ABB}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +699,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6">
-        <v>45756</v>
+        <v>45758</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,22 +716,22 @@
     </row>
     <row r="2" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="1:5" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>12</v>
@@ -741,127 +744,123 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="11"/>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="D7" s="11"/>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="D10" s="11"/>
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>36</v>
@@ -874,7 +873,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="9"/>
@@ -882,18 +881,16 @@
     <row r="14" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
